--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/61_Nevşehir_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/61_Nevşehir_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1BDFBE-ACE3-4E23-884D-979C84612228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9B1C27-FCEE-406E-8E6A-05318DAD483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{B249CB62-893F-4672-A8B8-CE4AA387E6CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{F4E756CB-0A8F-429A-8D20-96B7A56A9A31}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -967,13 +967,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3F1E5909-89D3-4B08-81D2-DF88EBE5773C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CD985396-6EFC-4A06-B312-1B4A55FD08D1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4DC2517-0185-454F-BBFF-91D77D174537}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{272E6F51-4B12-48BD-B544-2B8F22A20549}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{93BAD405-4A62-4E4B-9ECB-833BE68AFC54}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{382C2D05-EEA4-4D6B-8096-4DEE60EF1E5B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{848570A7-4508-475A-B7FD-D105CC2CC5E1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B205FCE9-41C7-4B76-9838-1C797250D515}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{96B0AB69-5B2F-49E1-B2D4-5B56EE4A18EB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CA66D4F4-8515-4944-BE25-749576D32943}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4EA9154D-39D6-4439-8193-C64B7E12A375}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{98E751E8-155E-46D7-8C5C-7226F326D412}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{E2D3E9C6-48C5-4BB5-A57B-3E60D341DBB3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7EF836D4-C3D2-4441-8107-1D09AD197CD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44C602-BF26-4D50-8346-27DB2C514214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192A0B4-7616-4B2B-8AD3-32791DFB9C0F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2566,18 +2566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9AC0C49-6C2E-4B64-BB55-4B4D26DCCE54}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4A7E33E-BF9F-4F2A-AEC4-3FBB681B5271}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BE9018D-7EFB-495B-8257-960E341555C8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1B86573-8D86-43BE-9BDC-C8903729F732}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EA3A5B5-1614-44F6-853B-28B0F9537165}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8148E21-E14E-4F37-BE46-44516B1E4075}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D96BB360-0F36-4EE2-A1E9-8D5B54187299}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{603BE9BA-0668-49D1-BA36-703FFF55613C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FAF18045-FE4E-47DF-8497-DF2CCDA87B72}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1986C7BF-236A-4D40-9C70-0A8C24BC6551}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B976A3D-1E15-439E-9DA0-62DE91A858DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8BD6983-2BC2-4AB6-A8B2-8F46C02927EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F74E3714-7623-471A-9D29-3B861F487ECE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7917BE78-F160-40BA-8F5A-BF8C7B18C243}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7F792D0-3C54-4F86-A3FF-F50A804EAEBC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{069F8DCA-508D-48FA-86D5-167FDF3988CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D16692F7-FB95-4122-B18F-52B0CE222509}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C954BD4-E6F2-4D7C-9B54-DD84F0893EF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A3DBEAA-0D4A-4882-BB37-66FCE27162D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D58D3AD2-CE46-4204-B3FC-ADC93037A4CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFA936A5-0977-4EEC-AB5D-D5B2BE127C0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3A554BC-815E-4BFE-93C7-D6689670038B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15C95F57-7E3A-4681-99AD-AFD04553F73C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2D5EADC-D4AE-425E-9A02-A8D83C9E3893}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FB20D7-72CC-4BC2-B97B-82042ED9B50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F2A494-F12D-462C-9E03-16C232E3EB1F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3792,18 +3792,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{154E3AB6-7119-43A7-85D1-A61061BEABF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78627E8E-43A5-4CC5-A3FC-F395412D0E1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3152D4E1-E782-4A82-A9A5-31D84293B239}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD40B77D-5BC8-43E7-97D0-CC8FBC84F8E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A344089-1BCA-42F4-AA04-E9467D9304FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2BED73C-735A-493A-8062-D461FA4A5E1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DD393BE-F60D-4C8D-9ABF-87A3EE450F49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCC1C262-C658-4FCF-981C-6D032D91BD53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1B0EEB0-FBB9-49C5-8D9F-D28125F15DCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{098DCA57-1256-43CA-87AF-A4143BFEA9EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{955329F6-B5FE-4336-908A-778B1DE9ACA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8951F92D-11D8-40AC-BF0F-1B74806C126F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5D78049-C423-4E62-A5F0-383818F541B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00B34A03-E96E-4827-BB3E-8B1CAE1E43AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F781A553-0CC9-44B2-BA70-39C75C5AB68B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C6381B2-2CD5-4292-B89F-6423DB74F73A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13FD9E77-20E6-443E-8550-BF1095608A01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39842D7D-2D7C-4715-A742-E370553BB108}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{220E153D-67C7-46EE-9E0B-7E6BCE260458}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB52BEEA-7291-4B2B-BF79-9B3FEE399DC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{890D57D1-22B2-42AA-80A8-BFCC150F3730}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B0A1DA0-EE89-4894-964B-D21538AA55BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A439C32A-CAAF-4DDB-8F42-F8BD634B0953}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F228CFD9-DED0-431C-B17F-860274CA9ADD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE82757-03B2-4200-9027-ADF46D75AAF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE0848-D30F-4DB4-8076-B96463B87758}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5014,18 +5014,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5CF2AF59-435E-4CAC-A7C0-70E0037E318F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6092128-9DB7-4177-A614-E2BBA2FEBD70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{967DF564-3C12-4BD4-B005-2B3D30A251B5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87ECDEB3-812A-4409-8C29-4CA7FE58EC81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C931516-4EFF-42AA-89AB-F82432798E90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAB8B785-08C3-4065-97EA-2251D4FAB6AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E3A7164-11E5-43EC-B14F-FD13BA603698}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A71CEEE-2737-4B80-BC5D-51D9A78E76C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC07E64D-0EAE-4E21-9759-CC09C800FB7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8A3FC12-E2F6-4B72-9A64-026E5C96330A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0AD2DE6-72E4-413B-AD3D-F71497065846}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D101E34-AA95-4D3F-9FEB-693157B0A080}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86C82652-89AB-436B-B017-3E93F43A6F6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBBB4973-D921-4049-852C-F60D08B66194}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60EF2B52-D894-442C-8F37-B4C3D690AE78}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A125D699-82FF-4462-BB84-04B7865BC097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{376A0B93-211E-457E-9D12-181CF2628F20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B760939-47A6-437A-9258-71F69E21E4F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87FC4F85-2203-4144-98B4-CE336425C833}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE05DEAD-2B65-42C5-ADD1-EC1AF23D8875}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE403B1B-26B1-4367-AC66-66B8A4B8B274}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7F28789-90E2-4C25-9E49-DEB55DBDA38D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18874066-7F62-49A3-B4D8-B5DE5C5625D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E343E5E8-139D-4BFC-845E-0A8EB984C773}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5038,7 +5038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D06BBC-41E1-4395-B8A9-C549E2B7619F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80436D5F-247F-40C5-8EAC-86BFFADC8093}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6236,18 +6236,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECC1E594-34CB-4194-83CC-E199BD29458B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82CFDCC4-9FDC-46C7-BFE3-041E8AA69490}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D4C7AE59-E167-4F3B-9E04-B8B7E104A753}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B06E15E-55C9-41BA-83B8-41A5C37F4701}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69FA91B5-CC36-496B-8A13-10E8B0D4E062}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56D51317-D2DC-45F8-A5E6-216838671FF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86F18775-5D21-4EBB-80A6-F16CEAFEE7B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E594625-FA4A-46E0-853F-5E92DFBEB77F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B20BE199-B406-4C9B-BE4C-125BED1752A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E328BAC5-9055-448F-B7FA-C1003CB5FD97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50EC1F7D-CFFA-4529-AD0F-2153604B69EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F46CF120-407E-43A9-9F1A-8DBC66E50B36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D54276C0-9E9F-471C-9C56-2AF8DF5D08D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75BEF66A-B48A-417B-97CD-03E12FAB4391}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF38FADB-62CC-4435-A8EB-0734D14DAB18}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{59168759-F7C4-48FF-8FFC-18543F79D9F0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C801B586-B221-42EB-A4DB-A33D98FF63E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED6EF1AF-8BEA-496F-88D8-3FDA42750344}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C5BC594-1BE6-4162-8E5E-8A48981B2323}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBC4EEEC-AB36-4774-89F2-694DEF008F65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4365FB32-D1D0-46B2-B170-F9B9926DEB78}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{434516B4-713A-4E6A-819E-D70CAACE39AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C82174B6-1AD0-498A-A7C6-7B0273E8D8BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E0877B5-6C09-444E-B58F-3A3E22A85E53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6260,7 +6260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71B0BB0-37DE-4A67-B3AE-52B32B6153BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ECD1FB-ADA2-45F5-B214-F42C745E8A0F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7483,18 +7483,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B6ECF1F-B00C-4160-85FD-75D3319FFA61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C45A6B57-F039-498E-89CF-92D20243A47F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EFF5077-364A-49ED-9FC8-1E58C62BD9F6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2CD1BB93-E033-4636-93B1-6C25142356A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6758C5BF-CA8B-4471-9A24-1282D262E66F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C74FE9FE-0261-4DBD-BF32-A7AF94E032A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F11A5FE5-4C09-4CE8-8C1B-565854BEB9A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF579C98-F596-4D44-B953-B96239FB2DD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20E13769-ADC2-4F41-9B2F-2F94542C1B17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45DAA49F-11C8-451A-B140-EFC529D79C83}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60F3797D-6D5C-41A3-B8BD-273D23909E12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A6913DA-34ED-4134-82FA-B9B7E0067FB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFF1AF1E-3353-4BB1-A69D-3B18CED7775A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11C29588-9CC0-472C-84DD-C03391E600DF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{880FC07D-1AA6-4857-B088-C79F9C99A675}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA632D28-13FA-43B8-8EA3-A9C93E8F4B5E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF8C026B-5C15-4225-9CDF-B87C2946B33C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A267F89-7536-4388-9D55-1D9A55EF64A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A0EB379-5F3C-4854-A709-3E995F031758}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6C936EA-AA89-4E7D-A32C-208CE91156EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B169E072-0177-4B4D-93A7-BB07C477979F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE407D61-262E-4604-8715-4ED4B6F0F3AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EBB476D-3107-4AE8-B2A4-1633B5E8557B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D59C2EC-9CD1-41A3-ADBA-202579D07A32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7507,7 +7507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AD56B2-2B1B-40AE-8D22-DE86B20474CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAC82CB-4155-4E59-B258-BA5A90329904}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8726,18 +8726,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68A2D60C-DFEC-4275-8B0D-85C7E458BF71}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75D314D9-43FE-4784-B53D-30FC200B7F21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E65EC01-F215-44FA-8495-C13E22EFCA5D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5EB8DC5D-5985-45D6-B817-0C80BE7C669C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B38AAF8-A150-454B-A9AC-E186971A2497}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6425F3C-1259-45A3-A08F-49CDB9A51D6C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5A7848C-5492-4CF0-9E57-E1191487BDC5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A5FDE3C-D4D9-4385-B920-2971118C4120}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF549B50-C730-4CB5-90C1-504437C297B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36BD2EB8-4C94-45AA-930A-6DFDEA14A0B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A94CB0BF-D7B8-451B-B8E4-D8A6A38DA064}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88E9430C-274C-4DE0-A661-8E11128564DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4C6C556-BE43-4A8D-81F8-EAE8CC1A50EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46BC4805-D55F-4E6D-A8E3-CC8BF63519B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F13663D-2EC2-491B-9B41-348D3BF0B95F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{036B7E1C-6D85-4C1B-8D87-A0B3A6739B0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B5A4A9E-F1EC-4B89-8AE1-72A54CDBC456}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB11EF1F-55AA-4A0D-8CA8-4385562C164C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC802789-FBA8-4628-8CD0-65F790B1B555}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{280C2359-7970-4D5D-9788-21B1A7CD04EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1AB024E-D171-4BCF-A3FA-98C60526477F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5820669-02FC-45DA-B5F9-057288E35530}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0AA2DB0-9A58-4A51-A7C7-572BF624C38F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32921C55-2941-41DE-A366-63FC72D1D683}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8750,7 +8750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD59AF-9A29-4CA8-BA79-B3D357D475DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCC2B9-6474-43CA-8683-D737EAD4FEBB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9969,18 +9969,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7FEECB9-F6D0-4C15-AED3-9BF4D2718CC3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{125A87F9-CF9A-4AC0-AC8E-3E5A8C09AFD1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{849BCD00-1619-4A48-843D-3CD4D3F00F74}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7F08FB5-3353-4FE5-8D7B-40FE60C06827}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B90A9865-A93F-4CBD-A5FA-19F7E5E168DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A188E91-0259-40B4-BB6E-9974B4B74355}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E293E633-3935-4F77-AFE5-21E6B943C46C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EAF36EC-1A2F-4C2D-A076-E98845DCC418}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BB8AD09-4D5C-4271-A3F3-B280859E2F15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA3CC190-491C-4296-BE08-9DE5566620D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FDF27E8-0000-4915-9601-2ED061AB46D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BBC54F7-3B97-40E0-8056-1FB8428B7EF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8F7C834-1B6A-4BF4-A786-C52D3A7ECCFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9FE8202-D5F0-407A-8051-6AF5C7E4B4FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CBA68201-847C-4A1B-84A9-C40DEC733266}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA07CA4E-FD76-4319-AB7B-D4FCA1AE8629}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B250289-CAF0-439F-9AED-0677FD6568DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A638E204-F69C-48E7-8CC7-482338BD00CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AE361CF-5A49-46DB-8A49-6A5874CEC99A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AEDEE94-8879-4253-A40B-DB46029A4B92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5031E8E-2DE9-4121-BBA2-0087A61DF1B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9C4889C-DE94-488B-A184-784C109DBC6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60F4BEF3-4D51-42A1-8D5D-156FF114D0DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60C26FE5-047A-4C68-A6FC-B335412F5142}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9993,7 +9993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5CE00A-817D-434E-9E31-96CD2AB6BEFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1797EAA-8147-4297-9EAD-DA6ADC433BE2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11212,18 +11212,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{497DD52A-E4E4-4AE8-9681-42750A2D4F4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C8C24E4-DD2F-473F-943F-C42BC9390971}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3ED467F-C5E7-4788-BF10-145A8367A0C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C52D450-B59D-4440-B165-56B80320EE1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91A0109B-20D0-405E-BC17-F278575E674E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF841AE1-0016-42ED-8DFB-3977BD92F175}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CD5CE8B-71DB-46FF-BDE3-7AFC70936868}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A953F2C-82E9-45D3-AB0B-62EE8B64A949}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5E3A474-885D-4AC1-93E5-D729D7FF964B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{617E712E-6B04-4AB9-9161-903CBC27E0BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F2C2642-9936-4542-8C56-02D19C2D22F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36AC7491-7401-4D45-A3A8-029D5C772984}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{413C006D-CF6D-468A-A0EA-1FD443DAA40A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBB55793-1ADF-4085-A232-B71B1E333E98}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5BB3211-78F9-4A05-A093-C90632A9A40E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8627152-212C-402E-9567-4925F0A37895}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3725EA88-DFC0-44B9-A73D-20909EF966F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F83676FF-FE6D-4A23-B825-AF873AD6ADA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{141B79D0-DF1A-46D1-977E-DC62136CF5C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{616F3392-7E87-4A01-B94A-E4D1CB72ED27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{555E908B-BDC4-41BB-A4F3-773227AF5017}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD3540A9-B620-47B6-B6D8-B7B196C599DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B4704E6-CC7B-429B-8F80-E1CA6A6F59A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9EE8C9E-CF64-4AD3-A2D8-C4BB8AE38AB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11236,7 +11236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C311A838-195D-4724-BF8B-D9311AB2CCC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F26B6-DFFD-4BA4-BA89-C18246A8A2FF}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12447,18 +12447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52A23B01-9FA3-4AE0-8A4C-69D0AEFC2C67}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEC8F6C1-2007-40CE-8578-D6CE25D54957}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF34CAB2-C14E-4C86-9B10-463965EF5E3D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A338240-BA29-47EF-9EB7-E44B6B9CE609}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A62B02EC-10F0-4013-8386-C6397C534BE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{454780D5-D3C9-44C4-B85C-F13782338D1C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A3D2521-AEC9-400B-9C14-A830FDE20014}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13EDA8CD-08BE-4760-90BA-8BADB6A26000}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E543836E-766B-4798-A801-E3956E629B55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23848F86-332D-4FAA-BFB0-704455968A9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{645FFD64-D639-4C41-BCD8-7B95BDA30B67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7381FD5-B2E7-4DDD-AC34-3A66E160C084}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36381F7C-E459-4898-A1B8-C867E55F2B1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76827BFC-9EAB-4FDD-90C0-1A42F6C2B938}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B33024B8-52B9-4CB4-A576-D15F10B06405}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37A11172-D437-4C7C-841E-536FF6C597F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD8D599A-AE38-46E3-8351-793F703A71D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9B535E7-7453-497D-9042-5AA01A993F39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A019683-B0AB-41D8-BFB0-8EAA8A2EF659}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A01C0BA-2F24-4B5E-B9BE-AF1E440B6D92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CEB1A09-F2BB-43F3-A194-95594627500B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BB1277D-2D7A-4FF4-A352-05D14389EC83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C4A7F9F-F292-41DD-84E7-600503512342}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D014EE3-835A-4732-9A03-5FA7A0DEF91A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12471,7 +12471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5CE091-58C6-445D-BDF8-FAD8876C4394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEE8823-8E4C-4D38-9E27-67B9F257A3F9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13677,18 +13677,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D139AE5-627D-4CA4-B7A4-E6577C8ABFE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A886141-C5D9-429E-A69F-52086FEC6855}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2C82714-4B4F-411E-9D8E-24B3EC70781E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C85FE3C-AEB8-4831-B705-8FD05D5AF1D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EABC71B-2343-4E8C-AC6E-6A6842BFB086}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2362CE4-9659-4E50-B608-71037D97BD75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53BD9453-CED6-422E-835C-CD53ADA3DE15}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{811B10E5-8906-4EFC-9368-ECCC1131220B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3843422-62CE-4D22-95CD-46547522E399}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{697BE8CB-CDE8-46C0-AD30-83DC14C12C4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{186A2FE9-E24D-421A-A798-331CA87D3F43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D334CFB-B261-4CD6-B93C-473279993F29}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C7754C4-3A52-4BC9-9141-756EBF4A084A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{991C3EE0-E0C8-40D7-9B4A-DCA064A753EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43C09110-2CA0-4D96-993D-122536EED66B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{672F8641-7A88-440F-B39A-1BDB93A02752}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CCBB23F-6653-4749-A00A-D56A6A1D752A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CCEB04F0-D852-4884-A22C-885F34326638}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{955A5140-114E-437B-B89C-922BD6F2B4DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F08DA799-55CE-45F4-A3FF-AB8808C1B0C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{545895AC-2D90-40B9-BB72-AB9BC2341CA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17FEDDC1-DF77-433F-89A4-8AA8D53AF2DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA25BC72-2643-4C12-B8CD-81B8D7577420}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0641DD2E-AF40-4422-9697-4F6E23FCB7DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13701,7 +13701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC555A4E-8683-451F-A89F-AA68718A40E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14497B9-DF7B-4CFA-85DE-566DA670467C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14907,18 +14907,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ADFE11E-B6C7-48B5-892C-2EC8CDF04649}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{345C0722-3867-4F09-BA0D-160AFD1E9DEB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28400339-81F2-47E7-AFBE-8610100B6943}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B1D82FF-1287-4447-8874-F3ED3BDF995B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E4C1395-4381-4348-AC9A-4A892D61DC03}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8ECA9029-1697-4F77-8CC0-71B772C56755}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F73E5F1-E7ED-46AC-9A09-403F75FBA4FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B2A5FD2-6DDC-4D39-8FB0-A86979A4F628}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CAC3D93-BBA0-4A24-8ACE-6FFD13964829}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16B707CA-F73F-45D6-976F-A732063A311B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28DABA5A-B1F0-4424-9854-666246C5861E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BCE5AD3-03A5-461F-9C4E-16750D3D1C3D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2378BFC3-E7ED-429A-8E14-017D4A42F331}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33071B2E-4F80-44AF-B7C8-0F4ABFFBC769}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8E84444-3903-4810-A64F-28AE830FF6C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D1A037B-1EE2-46F4-9732-E26D915E4DA3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BEA0135-E004-42C2-9298-DCB08D4C8E35}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAEB9313-75DA-4C49-B147-7806561EF3A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBC084B4-8D6C-4727-883F-BE228CC11764}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4448F8B-0911-477D-8464-B07A31F64DAC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72E2CDB0-C08E-40C6-B001-77B76EAF1F60}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE23A17B-30DB-4C8F-BEB6-CBFAD65731FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3486CAF4-2B52-484E-BE5A-F01073F015C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8D8F9C9-9EFC-4A04-82AD-D092BA2DFC67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14931,7 +14931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE3FC0D-56F0-47D2-9F57-430AC08182A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0FAA12-9985-45A7-A362-2C290D50196B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16133,18 +16133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDA73956-DFD7-44D0-9ADB-8585D0C60C2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FA1B89D-6268-430F-B2E5-491DD1B6316E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1CC925F2-FE28-4EB6-825E-BF1019A3D6DB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2331191A-EFC2-4513-A358-FA92A1EB1AD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D235EE2B-762C-473A-8067-204BF1FDE8F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B869CF8-401A-4442-BAAC-83F0F3091029}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F25AB2BB-5567-4218-A600-A0725FC88A3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9A75B96-01B7-4242-A729-33C1ADB483CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB46BCF8-FFE8-4737-B5E8-95732D740E6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1ADBB7C4-870F-4409-862C-432317705179}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7EFAD75-235A-4FAC-9A13-5631361F4DFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A23F361-1D14-4E2E-A8EA-D7931FAABE5F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62AC1751-DE36-43DB-801F-B9955205B394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B6DE6CF-D2BD-4782-A81E-DCBA9F400687}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{195E8137-FAD8-4A0B-89C6-BD321AF6AF25}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D31AB883-CD61-44F6-BF65-10202BA8BC18}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{024DD9FE-5BC5-4392-A397-F6EFB46A240B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B6FB8B6-BC53-4DCB-9C9B-EEC0DB4274C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DDDAAFB-F97B-4F65-AE2F-1040F4222609}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AA87625-9B03-4B20-9C62-47AFDF336EC4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71791B27-0280-415E-8B4F-09B96CD865E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BFBBA69-C12B-4A9D-8237-2B75B37F59D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93AEB1A1-7A10-4242-93D6-0A50920F5C38}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6A22605-FCF0-4AFB-BCC3-7D2AAB534CD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
